--- a/stock_historical_data/3mo/EXICOM.NS.xlsx
+++ b/stock_historical_data/3mo/EXICOM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,6 +523,11 @@
           <t>two_line_structure</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -576,6 +581,63 @@
       <c r="Q2" t="n">
         <v>0</v>
       </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="B3" t="n">
+        <v>336.2000122070312</v>
+      </c>
+      <c r="C3" t="n">
+        <v>337.9500122070312</v>
+      </c>
+      <c r="D3" t="n">
+        <v>316.1000061035156</v>
+      </c>
+      <c r="E3" t="n">
+        <v>318</v>
+      </c>
+      <c r="F3" t="n">
+        <v>318</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I3" t="n">
+        <v>6</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>22</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/3mo/EXICOM.NS.xlsx
+++ b/stock_historical_data/3mo/EXICOM.NS.xlsx
@@ -637,7 +637,9 @@
       <c r="Q3" t="n">
         <v>0</v>
       </c>
-      <c r="R3" t="inlineStr"/>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/3mo/EXICOM.NS.xlsx
+++ b/stock_historical_data/3mo/EXICOM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,6 +523,11 @@
           <t>two_line_structure</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -576,6 +581,9 @@
       <c r="Q2" t="n">
         <v>0</v>
       </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -629,6 +637,113 @@
       <c r="Q3" t="n">
         <v>0</v>
       </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45536</v>
+      </c>
+      <c r="B4" t="n">
+        <v>389.9500122070312</v>
+      </c>
+      <c r="C4" t="n">
+        <v>391.2000122070312</v>
+      </c>
+      <c r="D4" t="n">
+        <v>257.3500061035156</v>
+      </c>
+      <c r="E4" t="n">
+        <v>277.5</v>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="n">
+        <v>30739491</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I4" t="n">
+        <v>9</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>35</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B5" t="n">
+        <v>274.6499938964844</v>
+      </c>
+      <c r="C5" t="n">
+        <v>295.3500061035156</v>
+      </c>
+      <c r="D5" t="n">
+        <v>242.3999938964844</v>
+      </c>
+      <c r="E5" t="n">
+        <v>247.3000030517578</v>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="n">
+        <v>6010384</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I5" t="n">
+        <v>12</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>48</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
